--- a/dtpu_configurations/only_integer8/30mhz/graph_utilization.xlsx
+++ b/dtpu_configurations/only_integer8/30mhz/graph_utilization.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E30BFF-EF25-4B99-B152-0C6F678CB7E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9581BB52-5DFF-46BE-9E37-867D0E708A1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="utilizatio" sheetId="1" r:id="rId1"/>
@@ -1298,7 +1298,7 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1383,7 +1383,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="it-IT"/>
-                  <a:t>Utilization</a:t>
+                  <a:t>Utilization %</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -6057,8 +6057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6648,7 +6648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>

--- a/dtpu_configurations/only_integer8/30mhz/graph_utilization.xlsx
+++ b/dtpu_configurations/only_integer8/30mhz/graph_utilization.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9581BB52-5DFF-46BE-9E37-867D0E708A1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3E2FCB-830D-4F3D-AC83-06045B8D2C01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -82,9 +82,6 @@
     <t>BUFG</t>
   </si>
   <si>
-    <t>MXU size/Utilization</t>
-  </si>
-  <si>
     <t>WNS</t>
   </si>
   <si>
@@ -110,6 +107,9 @@
   </si>
   <si>
     <t>Total Power</t>
+  </si>
+  <si>
+    <t>30mhz</t>
   </si>
 </sst>
 </file>
@@ -191,1345 +191,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="it-IT"/>
-              <a:t>Post</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="it-IT" baseline="0"/>
-              <a:t> Implementation Utilization Only Integer 8</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>utilizatio!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>LUT</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>utilizatio!$A$2:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>3x3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4x4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>utilizatio!$B$2:$B$15</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>16.479324340820313</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>17.434211730957031</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>18.12</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>18.77</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>19.05</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20.0093994140625</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>21.81</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>23.94</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="General">
-                  <c:v>25.92</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="General">
-                  <c:v>31.55</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>43.2</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>57.07</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>71.78</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="General">
-                  <c:v>89.12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-52FA-4190-AA51-015FD3EB2796}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>utilizatio!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>LUTRAM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>utilizatio!$A$2:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>3x3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4x4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>utilizatio!$C$2:$C$15</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>5.3333334922790527</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.3333334922790527</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>5.41</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>5.52</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>5.61</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.7126436233520508</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>5.9</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>6.08</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="General">
-                  <c:v>6.26</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="General">
-                  <c:v>6.45</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>6.61</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>6.82</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="General">
-                  <c:v>7.18</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-52FA-4190-AA51-015FD3EB2796}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>utilizatio!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FF</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>utilizatio!$A$2:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>3x3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4x4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>utilizatio!$D$2:$D$15</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>11.11936092376709</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11.668232917785645</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>12.57</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13.816729545593262</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>15.23</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>16.95</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="General">
-                  <c:v>18.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="General">
-                  <c:v>22.09</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>27.6</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>33.75</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>40.549999999999997</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="General">
-                  <c:v>47.99</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-52FA-4190-AA51-015FD3EB2796}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>utilizatio!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>BRAM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>utilizatio!$A$2:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>3x3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4x4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>utilizatio!$E$2:$E$15</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>34.285717010498047</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>46.428569793701172</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>46.43</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>52.14</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>52.14</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>57.857143402099609</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>57.86</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>57.86</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="General">
-                  <c:v>57.86</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="General">
-                  <c:v>57.86</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>57.86</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>57.86</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>57.86</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="General">
-                  <c:v>57.86</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-52FA-4190-AA51-015FD3EB2796}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>utilizatio!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>DSP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>utilizatio!$A$2:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>3x3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4x4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>utilizatio!$F$2:$F$15</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>2.7272727489471436</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.4545454978942871</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>9.09</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>13.64</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>19.09</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25.454544067382813</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>40.909999999999997</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="General">
-                  <c:v>82.73</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="General">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="General">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-52FA-4190-AA51-015FD3EB2796}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>utilizatio!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>I/O</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>utilizatio!$A$2:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>3x3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4x4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>utilizatio!$G$2:$G$15</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="General">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="General">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="General">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-52FA-4190-AA51-015FD3EB2796}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>utilizatio!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>BUFG</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>utilizatio!$A$2:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>3x3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4x4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>utilizatio!$H$2:$H$15</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>3.125</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.125</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.125</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="General">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="General">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>6.25</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="General">
-                  <c:v>6.25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-52FA-4190-AA51-015FD3EB2796}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="522638264"/>
-        <c:axId val="324305832"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="522638264"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Mxu Size</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="324305832"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="324305832"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="it-IT"/>
-                  <a:t>Utilization %</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="522638264"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr anchor="t" anchorCtr="0"/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
-  </c:printSettings>
-  <c:userShapes r:id="rId3"/>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -2181,7 +842,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -4002,46 +2663,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -4559,7 +3180,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4582,17 +3203,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
@@ -4667,511 +3277,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -5569,90 +3674,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>556260</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Grafico 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F15F657A-6E36-4A78-B524-26DE3B789BE6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.02225</cdr:x>
-      <cdr:y>0.09181</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.09179</cdr:x>
-      <cdr:y>0.15136</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="CasellaDiTesto 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0869A4B4-3EB4-4E6B-AB79-B81404B2F604}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="121920" y="281940"/>
-          <a:ext cx="381000" cy="182880"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:endParaRPr lang="it-IT" sz="1100"/>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5693,7 +3714,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6058,14 +4079,14 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="B2" sqref="B2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
         <v>14</v>
@@ -6094,25 +4115,25 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>16.479324340820313</v>
+        <v>16.48</v>
       </c>
       <c r="C2" s="2">
-        <v>5.3333334922790527</v>
+        <v>5.33</v>
       </c>
       <c r="D2" s="2">
-        <v>11.11936092376709</v>
+        <v>11.12</v>
       </c>
       <c r="E2" s="2">
-        <v>34.285717010498047</v>
+        <v>34.29</v>
       </c>
       <c r="F2" s="2">
-        <v>2.7272727489471436</v>
+        <v>2.73</v>
       </c>
       <c r="G2" s="2">
         <v>8</v>
       </c>
       <c r="H2" s="2">
-        <v>3.125</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -6462,7 +4483,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6478,10 +4499,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
         <v>22</v>
-      </c>
-      <c r="C1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -6656,13 +4677,13 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>25</v>
-      </c>
-      <c r="D1" t="s">
-        <v>26</v>
       </c>
       <c r="E1" t="s">
         <v>17</v>
@@ -6674,16 +4695,16 @@
         <v>19</v>
       </c>
       <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>28</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>29</v>
-      </c>
-      <c r="K1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">

--- a/dtpu_configurations/only_integer8/30mhz/graph_utilization.xlsx
+++ b/dtpu_configurations/only_integer8/30mhz/graph_utilization.xlsx
@@ -1,23 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3E2FCB-830D-4F3D-AC83-06045B8D2C01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A92BCC4-EF81-4B7A-82C2-2B7DBD8FC09D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="utilizatio" sheetId="1" r:id="rId1"/>
     <sheet name="timng" sheetId="2" r:id="rId2"/>
     <sheet name="power" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="31">
   <si>
     <t>3x3</t>
   </si>
@@ -109,14 +119,17 @@
     <t>Total Power</t>
   </si>
   <si>
-    <t>30mhz</t>
+    <t>PL Dynamic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000000"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +139,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -161,21 +181,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="18" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Percentuale" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -191,6 +218,1488 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>utilizatio!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3x3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>utilizatio!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>LUT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LUTRAM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BRAM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>I/O</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>BUFG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>utilizatio!$B$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.1648</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.33E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34289999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7300000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1300000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7D24-4494-9985-9B2EC6FE0FC8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>utilizatio!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4x4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>utilizatio!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>LUT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LUTRAM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BRAM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>I/O</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>BUFG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>utilizatio!$B$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.17430000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.33E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1166</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4642</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.45E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1300000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7D24-4494-9985-9B2EC6FE0FC8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>utilizatio!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5x5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>utilizatio!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>LUT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LUTRAM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BRAM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>I/O</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>BUFG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>utilizatio!$B$4:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.1812</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.4100000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.46529999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0899999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1300000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7D24-4494-9985-9B2EC6FE0FC8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>utilizatio!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6x6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>utilizatio!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>LUT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LUTRAM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BRAM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>I/O</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>BUFG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>utilizatio!$B$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.18770000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5199999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12570000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52139999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1300000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7D24-4494-9985-9B2EC6FE0FC8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>utilizatio!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7x7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>utilizatio!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>LUT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LUTRAM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BRAM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>I/O</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>BUFG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>utilizatio!$B$6:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.1905</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6099999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52139999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19089999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1300000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7D24-4494-9985-9B2EC6FE0FC8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>utilizatio!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8x8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>utilizatio!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>LUT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LUTRAM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BRAM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>I/O</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>BUFG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>utilizatio!$B$7:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.7099999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1381</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5786</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2545</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1300000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-7D24-4494-9985-9B2EC6FE0FC8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>utilizatio!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10x10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>utilizatio!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>LUT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LUTRAM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BRAM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>I/O</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>BUFG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>utilizatio!$B$8:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.21809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1525</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5786</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.40910000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1300000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-7D24-4494-9985-9B2EC6FE0FC8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>utilizatio!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>12x12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>utilizatio!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>LUT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LUTRAM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BRAM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>I/O</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>BUFG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>utilizatio!$B$9:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.2394</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.08E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5786</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1300000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-7D24-4494-9985-9B2EC6FE0FC8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>utilizatio!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>14x14</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>utilizatio!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>LUT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LUTRAM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BRAM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>I/O</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>BUFG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>utilizatio!$B$10:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.25919999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2600000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.189</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5786</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.82730000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1300000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-7D24-4494-9985-9B2EC6FE0FC8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>utilizatio!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16x16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>utilizatio!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>LUT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LUTRAM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BRAM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>I/O</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>BUFG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>utilizatio!$B$11:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.3155</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.4500000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22090000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5786</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1300000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-7D24-4494-9985-9B2EC6FE0FC8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>utilizatio!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>18x18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>utilizatio!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>LUT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LUTRAM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BRAM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>I/O</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>BUFG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>utilizatio!$B$12:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.432</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6100000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5786</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1300000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-7D24-4494-9985-9B2EC6FE0FC8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>utilizatio!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20x20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>utilizatio!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>LUT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LUTRAM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BRAM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>I/O</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>BUFG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>utilizatio!$B$13:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.57069999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.8199999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33750000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5786</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1300000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-7D24-4494-9985-9B2EC6FE0FC8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>utilizatio!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>22x22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>utilizatio!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>LUT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LUTRAM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BRAM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>I/O</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>BUFG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>utilizatio!$B$14:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.71779999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.40550000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5786</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-7D24-4494-9985-9B2EC6FE0FC8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>utilizatio!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>24x24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>utilizatio!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>LUT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LUTRAM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BRAM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>I/O</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>BUFG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>utilizatio!$B$15:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.89119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1800000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.47989999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5786</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-7D24-4494-9985-9B2EC6FE0FC8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="616516776"/>
+        <c:axId val="616517104"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="616516776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="616517104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="616517104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="616516776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -842,7 +2351,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -857,36 +2366,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="it-IT"/>
-              <a:t>Post</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="it-IT" baseline="0"/>
-              <a:t> Implementation Power</a:t>
-            </a:r>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -917,57 +2396,18 @@
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
-    <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
-      <c:depthPercent val="100"/>
-      <c:rAngAx val="1"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:backWall>
     <c:plotArea>
       <c:layout/>
-      <c:bar3DChart>
+      <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="standard"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>power!$B$1</c:f>
+              <c:f>power!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -984,12 +2424,11 @@
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>power!$A$2:$A$15</c:f>
+              <c:f>power!$N$2:$N$15</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
@@ -1039,58 +2478,58 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>power!$B$2:$B$15</c:f>
+              <c:f>power!$O$2:$O$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.01</c:v>
+                  <c:v>0.46398319344646316</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.01</c:v>
+                  <c:v>0.49325666757999909</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.01</c:v>
+                  <c:v>0.45332851680944103</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.01</c:v>
+                  <c:v>0.47636531416964817</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.01</c:v>
+                  <c:v>0.46332292985641743</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.01</c:v>
+                  <c:v>0.49297867467078726</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.01</c:v>
+                  <c:v>0.48809863029977368</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.01</c:v>
+                  <c:v>0.44617954508080104</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.02</c:v>
+                  <c:v>0.47568078087742655</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.02</c:v>
+                  <c:v>0.48478612788404463</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.02</c:v>
+                  <c:v>0.51408626022538273</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.02</c:v>
+                  <c:v>0.39470571581577685</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.02</c:v>
+                  <c:v>0.40701983769559663</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.02</c:v>
+                  <c:v>0.40032362636277513</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8E9E-410C-97F2-71372CF15D71}"/>
+              <c16:uniqueId val="{00000000-760B-4D8C-A106-BD548EEA1480}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1099,7 +2538,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>power!$C$1</c:f>
+              <c:f>power!$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1116,12 +2555,11 @@
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>power!$A$2:$A$15</c:f>
+              <c:f>power!$N$2:$N$15</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
@@ -1171,58 +2609,58 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>power!$C$2:$C$15</c:f>
+              <c:f>power!$P$2:$P$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.23371259680060286</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.01</c:v>
+                  <c:v>0.2025319382838382</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.01</c:v>
+                  <c:v>0.18870257085732547</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.01</c:v>
+                  <c:v>0.19718636738329995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.01</c:v>
+                  <c:v>0.19419188755189379</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.01</c:v>
+                  <c:v>0.19496248068481725</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.01</c:v>
+                  <c:v>0.20157935645789632</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.01</c:v>
+                  <c:v>0.1936280818902599</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.01</c:v>
+                  <c:v>0.21789326672877748</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.01</c:v>
+                  <c:v>0.22036739972298386</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.01</c:v>
+                  <c:v>0.22767146078714232</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.01</c:v>
+                  <c:v>0.24164407856970199</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.01</c:v>
+                  <c:v>0.23813926387376991</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.01</c:v>
+                  <c:v>0.26844053476860724</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8E9E-410C-97F2-71372CF15D71}"/>
+              <c16:uniqueId val="{00000001-760B-4D8C-A106-BD548EEA1480}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1231,7 +2669,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>power!$D$1</c:f>
+              <c:f>power!$Q$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1248,12 +2686,11 @@
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>power!$A$2:$A$15</c:f>
+              <c:f>power!$N$2:$N$15</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
@@ -1303,58 +2740,58 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>power!$D$2:$D$15</c:f>
+              <c:f>power!$Q$2:$Q$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.16591451133111956</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.16528314394342117</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.1523166292146092</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.15590202092912128</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.14935833082223898</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.15506521010816501</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.14974129212176951</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.1364131391281693</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.14634461709047089</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.13944691357487807</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.01</c:v>
+                  <c:v>0.14337301856691897</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.01</c:v>
+                  <c:v>0.11284901112073385</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.01</c:v>
+                  <c:v>0.11673826545229375</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.01</c:v>
+                  <c:v>0.13827337693834693</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8E9E-410C-97F2-71372CF15D71}"/>
+              <c16:uniqueId val="{00000002-760B-4D8C-A106-BD548EEA1480}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1363,7 +2800,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>power!$E$1</c:f>
+              <c:f>power!$R$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1380,12 +2817,11 @@
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>power!$A$2:$A$15</c:f>
+              <c:f>power!$N$2:$N$15</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
@@ -1435,58 +2871,58 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>power!$E$2:$E$15</c:f>
+              <c:f>power!$R$2:$R$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>8.3949528679901145E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>8.7185701497034904E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.14174069734877293</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.10860465433744036</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.12222992464635205</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.1071598220268293</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.11020774777055584</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.01</c:v>
+                  <c:v>0.17380460259124991</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.11308946323362688</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.11333375280766948</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>7.8455163712195783E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.01</c:v>
+                  <c:v>0.20890883499754515</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.01</c:v>
+                  <c:v>0.20217814058078251</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.01</c:v>
+                  <c:v>0.16427899867560133</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-8E9E-410C-97F2-71372CF15D71}"/>
+              <c16:uniqueId val="{00000003-760B-4D8C-A106-BD548EEA1480}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1495,7 +2931,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>power!$F$1</c:f>
+              <c:f>power!$S$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1512,12 +2948,11 @@
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>power!$A$2:$A$15</c:f>
+              <c:f>power!$N$2:$N$15</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
@@ -1567,58 +3002,58 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>power!$F$2:$F$15</c:f>
+              <c:f>power!$S$2:$S$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>7.6559252208217062E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3.6970702623069014E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4.1357784047316534E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>6.2218858610284505E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2.9450324271893232E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>6.5681817137780494E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>6.5477018080488619E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2.151531943604307E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>3.0718686371079521E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>4.8651893967397329E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>6.1499923395813534E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>6.0995746049510042E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>4.8242635092092334E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>3.0780344450631889E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-8E9E-410C-97F2-71372CF15D71}"/>
+              <c16:uniqueId val="{00000004-760B-4D8C-A106-BD548EEA1480}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1627,7 +3062,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>power!$G$1</c:f>
+              <c:f>power!$T$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1644,12 +3079,11 @@
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>power!$A$2:$A$15</c:f>
+              <c:f>power!$N$2:$N$15</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
@@ -1699,58 +3133,58 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>power!$G$2:$G$15</c:f>
+              <c:f>power!$T$2:$T$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.7376376269313728E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.7236493400312395E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4.1380250584051662E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>3.9296169323320938E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>4.7276242464765313E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2.744859255562089E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2.9193241690605852E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2.9473460876611679E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>2.5759678810238044E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1.9926042846721361E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1.3410256455303197E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>2.3834642524833735E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>1.9403194839778801E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>1.3721791725739955E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-8E9E-410C-97F2-71372CF15D71}"/>
+              <c16:uniqueId val="{00000005-760B-4D8C-A106-BD548EEA1480}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1759,7 +3193,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>power!$H$1</c:f>
+              <c:f>power!$U$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1778,12 +3212,11 @@
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>power!$A$2:$A$15</c:f>
+              <c:f>power!$N$2:$N$15</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
@@ -1833,460 +3266,58 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>power!$H$2:$H$15</c:f>
+              <c:f>power!$U$2:$U$15</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.4816609799293846E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.3968526368981044E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.1965622136114658E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2.1870351213039763E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2.0532103658235115E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2.1579336685856501E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2.038372418572329E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1.8224060160317884E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1.8035245364774573E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1.7156684944151023E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1.6739029060664948E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1.1875968074737063E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>1.1616440442746344E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>1.1805246609407719E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-8E9E-410C-97F2-71372CF15D71}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>power!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PS7</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>power!$A$2:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>3x3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4x4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>power!$I$2:$I$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.26</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-8E9E-410C-97F2-71372CF15D71}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>power!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PL Static</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>power!$A$2:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>3x3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4x4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>power!$J$2:$J$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.13</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-8E9E-410C-97F2-71372CF15D71}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>power!$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total Power</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>power!$A$2:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>3x3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4x4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>power!$K$2:$K$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1.41</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.41</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.41</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.41</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.41</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.41</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.41</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.42</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.42</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.42</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.42</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.43</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.44</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.43</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-8E9E-410C-97F2-71372CF15D71}"/>
+              <c16:uniqueId val="{00000006-760B-4D8C-A106-BD548EEA1480}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2299,74 +3330,83 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:shape val="box"/>
-        <c:axId val="516830832"/>
-        <c:axId val="516831488"/>
-        <c:axId val="596653888"/>
-      </c:bar3DChart>
+        <c:overlap val="100"/>
+        <c:axId val="447313128"/>
+        <c:axId val="447309192"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="516830832"/>
+        <c:axId val="447313128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="it-IT"/>
-                  <a:t>Mxu size</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="447309192"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="447309192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
           <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2397,109 +3437,10 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516831488"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="516831488"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="516830832"/>
+        <c:crossAx val="447313128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:serAx>
-        <c:axId val="596653888"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="516831488"/>
-        <c:crosses val="autoZero"/>
-      </c:serAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2541,13 +3482,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -2578,7 +3512,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
+    <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -2663,8 +3597,48 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2772,11 +3746,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -2787,11 +3756,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -2823,9 +3787,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3180,7 +4141,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3203,6 +4164,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
@@ -3277,6 +4249,522 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -3674,6 +5162,47 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6595CB02-47D3-41AF-99C3-C16A91D4C693}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3714,27 +5243,27 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Grafico 1">
+        <xdr:cNvPr id="3" name="Grafico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6305B820-DE22-4081-B725-F770B35ADD09}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55899591-BF19-4E07-AEF7-2B9DB2742E27}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4078,16 +5607,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>30</v>
-      </c>
       <c r="B1" t="s">
         <v>14</v>
       </c>
@@ -4115,25 +5646,25 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>16.48</v>
+        <v>0.1648</v>
       </c>
       <c r="C2" s="2">
-        <v>5.33</v>
+        <v>5.33E-2</v>
       </c>
       <c r="D2" s="2">
-        <v>11.12</v>
+        <v>0.11119999999999999</v>
       </c>
       <c r="E2" s="2">
-        <v>34.29</v>
+        <v>0.34289999999999998</v>
       </c>
       <c r="F2" s="2">
-        <v>2.73</v>
-      </c>
-      <c r="G2" s="2">
-        <v>8</v>
+        <v>2.7300000000000001E-2</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.08</v>
       </c>
       <c r="H2" s="2">
-        <v>3.13</v>
+        <v>3.1300000000000001E-2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -4141,103 +5672,103 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>17.434211730957031</v>
+        <v>0.17430000000000001</v>
       </c>
       <c r="C3" s="2">
-        <v>5.3333334922790527</v>
+        <v>5.33E-2</v>
       </c>
       <c r="D3" s="2">
-        <v>11.668232917785645</v>
+        <v>0.1166</v>
       </c>
       <c r="E3" s="2">
-        <v>46.428569793701172</v>
+        <v>0.4642</v>
       </c>
       <c r="F3" s="2">
-        <v>5.4545454978942871</v>
-      </c>
-      <c r="G3" s="2">
-        <v>8</v>
+        <v>5.45E-2</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.08</v>
       </c>
       <c r="H3" s="2">
-        <v>3.125</v>
+        <v>3.1300000000000001E-2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>18.12</v>
-      </c>
-      <c r="C4">
-        <v>5.41</v>
-      </c>
-      <c r="D4">
-        <v>12</v>
-      </c>
-      <c r="E4">
-        <v>46.43</v>
-      </c>
-      <c r="F4">
-        <v>9.09</v>
-      </c>
-      <c r="G4">
-        <v>8</v>
-      </c>
-      <c r="H4">
-        <v>3.13</v>
+      <c r="B4" s="3">
+        <v>0.1812</v>
+      </c>
+      <c r="C4" s="3">
+        <v>5.4100000000000002E-2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.46529999999999999</v>
+      </c>
+      <c r="F4" s="3">
+        <v>9.0899999999999995E-2</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="H4" s="2">
+        <v>3.1300000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>18.77</v>
-      </c>
-      <c r="C5">
-        <v>5.52</v>
-      </c>
-      <c r="D5">
-        <v>12.57</v>
-      </c>
-      <c r="E5">
-        <v>52.14</v>
-      </c>
-      <c r="F5">
-        <v>13.64</v>
-      </c>
-      <c r="G5">
-        <v>8</v>
-      </c>
-      <c r="H5">
-        <v>3.13</v>
+      <c r="B5" s="3">
+        <v>0.18770000000000001</v>
+      </c>
+      <c r="C5" s="3">
+        <v>5.5199999999999999E-2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.12570000000000001</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.52139999999999997</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.13639999999999999</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="H5" s="2">
+        <v>3.1300000000000001E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>19.05</v>
-      </c>
-      <c r="C6">
-        <v>5.61</v>
-      </c>
-      <c r="D6">
-        <v>13</v>
-      </c>
-      <c r="E6">
-        <v>52.14</v>
-      </c>
-      <c r="F6">
-        <v>19.09</v>
-      </c>
-      <c r="G6">
-        <v>8</v>
-      </c>
-      <c r="H6">
-        <v>3.13</v>
+      <c r="B6" s="3">
+        <v>0.1905</v>
+      </c>
+      <c r="C6" s="3">
+        <v>5.6099999999999997E-2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.52139999999999997</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.19089999999999999</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="H6" s="2">
+        <v>3.1300000000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -4245,233 +5776,233 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>20.0093994140625</v>
+        <v>0.2</v>
       </c>
       <c r="C7" s="2">
-        <v>5.7126436233520508</v>
+        <v>5.7099999999999998E-2</v>
       </c>
       <c r="D7" s="2">
-        <v>13.816729545593262</v>
+        <v>0.1381</v>
       </c>
       <c r="E7" s="2">
-        <v>57.857143402099609</v>
+        <v>0.5786</v>
       </c>
       <c r="F7" s="2">
-        <v>25.454544067382813</v>
-      </c>
-      <c r="G7" s="2">
-        <v>8</v>
+        <v>0.2545</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.08</v>
       </c>
       <c r="H7" s="2">
-        <v>3.125</v>
+        <v>3.1300000000000001E-2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>21.81</v>
-      </c>
-      <c r="C8">
-        <v>5.9</v>
-      </c>
-      <c r="D8">
-        <v>15.23</v>
-      </c>
-      <c r="E8">
-        <v>57.86</v>
-      </c>
-      <c r="F8">
-        <v>40.909999999999997</v>
-      </c>
-      <c r="G8">
-        <v>8</v>
-      </c>
-      <c r="H8">
-        <v>3.13</v>
+      <c r="B8" s="3">
+        <v>0.21809999999999999</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.1525</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.5786</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.40910000000000002</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="H8" s="2">
+        <v>3.1300000000000001E-2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>23.94</v>
-      </c>
-      <c r="C9">
-        <v>6.08</v>
-      </c>
-      <c r="D9">
-        <v>16.95</v>
-      </c>
-      <c r="E9">
-        <v>57.86</v>
-      </c>
-      <c r="F9">
-        <v>60</v>
-      </c>
-      <c r="G9">
-        <v>8</v>
-      </c>
-      <c r="H9">
-        <v>3.13</v>
+      <c r="B9" s="3">
+        <v>0.2394</v>
+      </c>
+      <c r="C9" s="3">
+        <v>6.08E-2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.16950000000000001</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.5786</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="H9" s="2">
+        <v>3.1300000000000001E-2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>25.92</v>
-      </c>
-      <c r="C10">
-        <v>6.26</v>
-      </c>
-      <c r="D10">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="E10">
-        <v>57.86</v>
-      </c>
-      <c r="F10">
-        <v>82.73</v>
-      </c>
-      <c r="G10">
-        <v>8</v>
-      </c>
-      <c r="H10">
-        <v>3.13</v>
+      <c r="B10" s="3">
+        <v>0.25919999999999999</v>
+      </c>
+      <c r="C10" s="3">
+        <v>6.2600000000000003E-2</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.189</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.5786</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.82730000000000004</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="H10" s="2">
+        <v>3.1300000000000001E-2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>31.55</v>
-      </c>
-      <c r="C11">
-        <v>6.45</v>
-      </c>
-      <c r="D11">
-        <v>22.09</v>
-      </c>
-      <c r="E11">
-        <v>57.86</v>
-      </c>
-      <c r="F11">
-        <v>100</v>
-      </c>
-      <c r="G11">
-        <v>8</v>
-      </c>
-      <c r="H11">
-        <v>3.13</v>
+      <c r="B11" s="3">
+        <v>0.3155</v>
+      </c>
+      <c r="C11" s="3">
+        <v>6.4500000000000002E-2</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.22090000000000001</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.5786</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="H11" s="2">
+        <v>3.1300000000000001E-2</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>43.2</v>
-      </c>
-      <c r="C12">
-        <v>6.61</v>
-      </c>
-      <c r="D12">
-        <v>27.6</v>
-      </c>
-      <c r="E12">
-        <v>57.86</v>
-      </c>
-      <c r="F12">
-        <v>100</v>
-      </c>
-      <c r="G12">
-        <v>8</v>
-      </c>
-      <c r="H12">
-        <v>3.13</v>
+      <c r="B12" s="3">
+        <v>0.432</v>
+      </c>
+      <c r="C12" s="3">
+        <v>6.6100000000000006E-2</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.5786</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="H12" s="2">
+        <v>3.1300000000000001E-2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>57.07</v>
-      </c>
-      <c r="C13">
-        <v>6.82</v>
-      </c>
-      <c r="D13">
-        <v>33.75</v>
-      </c>
-      <c r="E13">
-        <v>57.86</v>
-      </c>
-      <c r="F13">
-        <v>100</v>
-      </c>
-      <c r="G13">
-        <v>8</v>
-      </c>
-      <c r="H13">
-        <v>3.13</v>
+      <c r="B13" s="3">
+        <v>0.57069999999999999</v>
+      </c>
+      <c r="C13" s="3">
+        <v>6.8199999999999997E-2</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.33750000000000002</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.5786</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="H13" s="2">
+        <v>3.1300000000000001E-2</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>71.78</v>
-      </c>
-      <c r="C14">
-        <v>7</v>
-      </c>
-      <c r="D14">
-        <v>40.549999999999997</v>
-      </c>
-      <c r="E14">
-        <v>57.86</v>
-      </c>
-      <c r="F14">
-        <v>100</v>
-      </c>
-      <c r="G14">
-        <v>8</v>
-      </c>
-      <c r="H14">
-        <v>6.25</v>
+      <c r="B14" s="3">
+        <v>0.71779999999999999</v>
+      </c>
+      <c r="C14" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.40550000000000003</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.5786</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="H14" s="3">
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>89.12</v>
-      </c>
-      <c r="C15">
-        <v>7.18</v>
-      </c>
-      <c r="D15">
-        <v>47.99</v>
-      </c>
-      <c r="E15">
-        <v>57.86</v>
-      </c>
-      <c r="F15">
-        <v>100</v>
-      </c>
-      <c r="G15">
-        <v>8</v>
-      </c>
-      <c r="H15">
-        <v>6.25</v>
+      <c r="B15" s="3">
+        <v>0.89119999999999999</v>
+      </c>
+      <c r="C15" s="3">
+        <v>7.1800000000000003E-2</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.47989999999999999</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.5786</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="H15" s="3">
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -4483,7 +6014,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4667,15 +6199,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:AB36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AB8" sqref="AB8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>23</v>
       </c>
@@ -4706,496 +6243,1276 @@
       <c r="K1" t="s">
         <v>29</v>
       </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0.01</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="4">
+        <v>1.0991264134645462E-2</v>
+      </c>
+      <c r="C2" s="4">
+        <v>5.5364007130265236E-3</v>
+      </c>
+      <c r="D2" s="4">
+        <v>3.9303367957472801E-3</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1.9886742811650038E-3</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1.8136065591534134E-6</v>
+      </c>
+      <c r="G2" s="4">
+        <v>6.4851698698475957E-4</v>
+      </c>
+      <c r="H2" s="4">
+        <v>5.8787886518985033E-4</v>
+      </c>
+      <c r="I2" s="4">
+        <v>1.2575732469558716</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0.12511192262172699</v>
+      </c>
+      <c r="K2" s="4">
+        <v>1.4063740968704224</v>
+      </c>
+      <c r="L2" s="5">
+        <f>K2-J2-I2</f>
+        <v>2.3688927292823792E-2</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="O2" s="3">
+        <f>B2/L2</f>
+        <v>0.46398319344646316</v>
+      </c>
+      <c r="P2" s="3">
+        <f>C2/L2</f>
+        <v>0.23371259680060286</v>
+      </c>
+      <c r="Q2" s="3">
+        <f>D2/L2</f>
+        <v>0.16591451133111956</v>
+      </c>
+      <c r="R2" s="3">
+        <f>E2/L2</f>
+        <v>8.3949528679901145E-2</v>
+      </c>
+      <c r="S2" s="3">
+        <f>F2/L2</f>
+        <v>7.6559252208217062E-5</v>
+      </c>
+      <c r="T2" s="3">
+        <f>G2/L2</f>
+        <v>2.7376376269313728E-2</v>
+      </c>
+      <c r="U2" s="3">
+        <f>H2/L2</f>
+        <v>2.4816609799293846E-2</v>
+      </c>
+      <c r="W2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>1.26</v>
-      </c>
-      <c r="J2">
-        <v>0.13</v>
-      </c>
-      <c r="K2">
-        <v>1.41</v>
+      <c r="X2" s="2">
+        <f>I2/K2</f>
+        <v>0.89419539918598157</v>
+      </c>
+      <c r="Y2" s="2">
+        <f>J2/K2</f>
+        <v>8.8960627830202629E-2</v>
+      </c>
+      <c r="Z2" s="2">
+        <f>L2/K2</f>
+        <v>1.6843972983815837E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0.01</v>
-      </c>
-      <c r="C3">
-        <v>0.01</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>1.26</v>
-      </c>
-      <c r="J3">
-        <v>0.13</v>
-      </c>
-      <c r="K3">
-        <v>1.41</v>
+      <c r="B3" s="4">
+        <v>1.2098164297640324E-2</v>
+      </c>
+      <c r="C3" s="4">
+        <v>4.9675246700644493E-3</v>
+      </c>
+      <c r="D3" s="4">
+        <v>4.0539191104471684E-3</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2.138413954526186E-3</v>
+      </c>
+      <c r="F3" s="4">
+        <v>9.0678477135952562E-6</v>
+      </c>
+      <c r="G3" s="4">
+        <v>6.6803267691284418E-4</v>
+      </c>
+      <c r="H3" s="4">
+        <v>5.8787886518985033E-4</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1.2575920820236206</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0.1262025386095047</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1.408321738243103</v>
+      </c>
+      <c r="L3" s="5">
+        <f t="shared" ref="L3:L15" si="0">K3-J3-I3</f>
+        <v>2.4527117609977722E-2</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="3">
+        <f t="shared" ref="O3:O7" si="1">B3/L3</f>
+        <v>0.49325666757999909</v>
+      </c>
+      <c r="P3" s="3">
+        <f t="shared" ref="P3:P7" si="2">C3/L3</f>
+        <v>0.2025319382838382</v>
+      </c>
+      <c r="Q3" s="3">
+        <f t="shared" ref="Q3:Q7" si="3">D3/L3</f>
+        <v>0.16528314394342117</v>
+      </c>
+      <c r="R3" s="3">
+        <f t="shared" ref="R3:R7" si="4">E3/L3</f>
+        <v>8.7185701497034904E-2</v>
+      </c>
+      <c r="S3" s="3">
+        <f t="shared" ref="S3:S7" si="5">F3/L3</f>
+        <v>3.6970702623069014E-4</v>
+      </c>
+      <c r="T3" s="3">
+        <f t="shared" ref="T3:T7" si="6">G3/L3</f>
+        <v>2.7236493400312395E-2</v>
+      </c>
+      <c r="U3" s="3">
+        <f t="shared" ref="U3:U7" si="7">H3/L3</f>
+        <v>2.3968526368981044E-2</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="X3" s="2">
+        <f>I3/K3</f>
+        <v>0.89297214398783664</v>
+      </c>
+      <c r="Y3" s="2">
+        <f>J3/K3</f>
+        <v>8.9612007812180594E-2</v>
+      </c>
+      <c r="Z3" s="2">
+        <f>L3/K3</f>
+        <v>1.741584819998275E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0.01</v>
-      </c>
-      <c r="C4">
-        <v>0.01</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>1.26</v>
-      </c>
-      <c r="J4">
-        <v>0.13</v>
-      </c>
-      <c r="K4">
-        <v>1.41</v>
+      <c r="B4" s="4">
+        <v>1.2132697738707066E-2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>5.0503578968346119E-3</v>
+      </c>
+      <c r="D4" s="4">
+        <v>4.0765395388007164E-3</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3.7934896536171436E-3</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1.1068827006965876E-5</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1.1074839858338237E-3</v>
+      </c>
+      <c r="H4" s="4">
+        <v>5.8787886518985033E-4</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1.2575920820236206</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.12622031569480896</v>
+      </c>
+      <c r="K4" s="4">
+        <v>1.4105759859085083</v>
+      </c>
+      <c r="L4" s="5">
+        <f t="shared" si="0"/>
+        <v>2.6763588190078735E-2</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="3">
+        <f t="shared" si="1"/>
+        <v>0.45332851680944103</v>
+      </c>
+      <c r="P4" s="3">
+        <f t="shared" si="2"/>
+        <v>0.18870257085732547</v>
+      </c>
+      <c r="Q4" s="3">
+        <f t="shared" si="3"/>
+        <v>0.1523166292146092</v>
+      </c>
+      <c r="R4" s="3">
+        <f t="shared" si="4"/>
+        <v>0.14174069734877293</v>
+      </c>
+      <c r="S4" s="3">
+        <f t="shared" si="5"/>
+        <v>4.1357784047316534E-4</v>
+      </c>
+      <c r="T4" s="3">
+        <f t="shared" si="6"/>
+        <v>4.1380250584051662E-2</v>
+      </c>
+      <c r="U4" s="3">
+        <f t="shared" si="7"/>
+        <v>2.1965622136114658E-2</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X4" s="2">
+        <f>I4/K4</f>
+        <v>0.89154508129077814</v>
+      </c>
+      <c r="Y4" s="2">
+        <f>J4/K4</f>
+        <v>8.9481401183442361E-2</v>
+      </c>
+      <c r="Z4" s="2">
+        <f>L4/K4</f>
+        <v>1.8973517525779467E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0.01</v>
-      </c>
-      <c r="C5">
-        <v>0.01</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>1.26</v>
-      </c>
-      <c r="J5">
-        <v>0.13</v>
-      </c>
-      <c r="K5">
-        <v>1.41</v>
+      <c r="B5" s="4">
+        <v>1.2804782949388027E-2</v>
+      </c>
+      <c r="C5" s="4">
+        <v>5.3004040382802486E-3</v>
+      </c>
+      <c r="D5" s="4">
+        <v>4.1906735859811306E-3</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2.9193121008574963E-3</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1.6724537999834865E-5</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1.0562879033386707E-3</v>
+      </c>
+      <c r="H5" s="4">
+        <v>5.8787886518985033E-4</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1.2575920820236206</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.12673160433769226</v>
+      </c>
+      <c r="K5" s="4">
+        <v>1.4112038612365723</v>
+      </c>
+      <c r="L5" s="5">
+        <f t="shared" si="0"/>
+        <v>2.6880174875259399E-2</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="3">
+        <f t="shared" si="1"/>
+        <v>0.47636531416964817</v>
+      </c>
+      <c r="P5" s="3">
+        <f t="shared" si="2"/>
+        <v>0.19718636738329995</v>
+      </c>
+      <c r="Q5" s="3">
+        <f t="shared" si="3"/>
+        <v>0.15590202092912128</v>
+      </c>
+      <c r="R5" s="3">
+        <f t="shared" si="4"/>
+        <v>0.10860465433744036</v>
+      </c>
+      <c r="S5" s="3">
+        <f t="shared" si="5"/>
+        <v>6.2218858610284505E-4</v>
+      </c>
+      <c r="T5" s="3">
+        <f t="shared" si="6"/>
+        <v>3.9296169323320938E-2</v>
+      </c>
+      <c r="U5" s="3">
+        <f t="shared" si="7"/>
+        <v>2.1870351213039763E-2</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X5" s="2">
+        <f>I5/K5</f>
+        <v>0.89114841346993712</v>
+      </c>
+      <c r="Y5" s="2">
+        <f>J5/K5</f>
+        <v>8.9803895679992862E-2</v>
+      </c>
+      <c r="Z5" s="2">
+        <f>L5/K5</f>
+        <v>1.9047690850070062E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>0.01</v>
-      </c>
-      <c r="C6">
-        <v>0.01</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>1.26</v>
-      </c>
-      <c r="J6">
-        <v>0.13</v>
-      </c>
-      <c r="K6">
-        <v>1.41</v>
+      <c r="B6" s="4">
+        <v>1.3265945017337799E-2</v>
+      </c>
+      <c r="C6" s="4">
+        <v>5.560136865824461E-3</v>
+      </c>
+      <c r="D6" s="4">
+        <v>4.2764544486999512E-3</v>
+      </c>
+      <c r="E6" s="4">
+        <v>3.4997090697288513E-3</v>
+      </c>
+      <c r="F6" s="4">
+        <v>8.4322695329319686E-5</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1.3536218320950866E-3</v>
+      </c>
+      <c r="H6" s="4">
+        <v>5.8787886518985033E-4</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1.2575920820236206</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.12674568593502045</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1.4129699468612671</v>
+      </c>
+      <c r="L6" s="5">
+        <f t="shared" si="0"/>
+        <v>2.8632178902626038E-2</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" s="3">
+        <f t="shared" si="1"/>
+        <v>0.46332292985641743</v>
+      </c>
+      <c r="P6" s="3">
+        <f t="shared" si="2"/>
+        <v>0.19419188755189379</v>
+      </c>
+      <c r="Q6" s="3">
+        <f t="shared" si="3"/>
+        <v>0.14935833082223898</v>
+      </c>
+      <c r="R6" s="3">
+        <f t="shared" si="4"/>
+        <v>0.12222992464635205</v>
+      </c>
+      <c r="S6" s="3">
+        <f t="shared" si="5"/>
+        <v>2.9450324271893232E-3</v>
+      </c>
+      <c r="T6" s="3">
+        <f t="shared" si="6"/>
+        <v>4.7276242464765313E-2</v>
+      </c>
+      <c r="U6" s="3">
+        <f t="shared" si="7"/>
+        <v>2.0532103658235115E-2</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="X6" s="2">
+        <f>I6/K6</f>
+        <v>0.89003455793040842</v>
+      </c>
+      <c r="Y6" s="2">
+        <f>J6/K6</f>
+        <v>8.9701614826677559E-2</v>
+      </c>
+      <c r="Z6" s="2">
+        <f>L6/K6</f>
+        <v>2.0263827242913961E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>0.01</v>
-      </c>
-      <c r="C7">
-        <v>0.01</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>1.26</v>
-      </c>
-      <c r="J7">
-        <v>0.13</v>
-      </c>
-      <c r="K7">
-        <v>1.41</v>
+      <c r="B7" s="4">
+        <v>1.3430058024823666E-2</v>
+      </c>
+      <c r="C7" s="4">
+        <v>5.3112995810806751E-3</v>
+      </c>
+      <c r="D7" s="4">
+        <v>4.2243911884725094E-3</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2.9193202499300241E-3</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1.7893484255182557E-5</v>
+      </c>
+      <c r="G7" s="4">
+        <v>7.4777309782803059E-4</v>
+      </c>
+      <c r="H7" s="4">
+        <v>5.8787886518985033E-4</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1.2575920820236206</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.12724493443965912</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1.4120796918869019</v>
+      </c>
+      <c r="L7" s="5">
+        <f t="shared" si="0"/>
+        <v>2.7242675423622131E-2</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O7" s="3">
+        <f t="shared" si="1"/>
+        <v>0.49297867467078726</v>
+      </c>
+      <c r="P7" s="3">
+        <f t="shared" si="2"/>
+        <v>0.19496248068481725</v>
+      </c>
+      <c r="Q7" s="3">
+        <f t="shared" si="3"/>
+        <v>0.15506521010816501</v>
+      </c>
+      <c r="R7" s="3">
+        <f t="shared" si="4"/>
+        <v>0.1071598220268293</v>
+      </c>
+      <c r="S7" s="3">
+        <f t="shared" si="5"/>
+        <v>6.5681817137780494E-4</v>
+      </c>
+      <c r="T7" s="3">
+        <f t="shared" si="6"/>
+        <v>2.744859255562089E-2</v>
+      </c>
+      <c r="U7" s="3">
+        <f t="shared" si="7"/>
+        <v>2.1579336685856501E-2</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X7" s="2">
+        <f>I7/K7</f>
+        <v>0.89059568609980788</v>
+      </c>
+      <c r="Y7" s="2">
+        <f>J7/K7</f>
+        <v>9.0111723276486713E-2</v>
+      </c>
+      <c r="Z7" s="2">
+        <f>L7/K7</f>
+        <v>1.9292590623705457E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>0.01</v>
-      </c>
-      <c r="C8">
-        <v>0.01</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>1.26</v>
-      </c>
-      <c r="J8">
-        <v>0.13</v>
-      </c>
-      <c r="K8">
-        <v>1.41</v>
-      </c>
+      <c r="B8" s="4">
+        <v>1.4077058061957359E-2</v>
+      </c>
+      <c r="C8" s="4">
+        <v>5.8136698789894581E-3</v>
+      </c>
+      <c r="D8" s="4">
+        <v>4.3186289258301258E-3</v>
+      </c>
+      <c r="E8" s="4">
+        <v>3.1784577295184135E-3</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1.8883965822169557E-5</v>
+      </c>
+      <c r="G8" s="4">
+        <v>8.4195064846426249E-4</v>
+      </c>
+      <c r="H8" s="4">
+        <v>5.8787886518985033E-4</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1.2575732469558716</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.12725776433944702</v>
+      </c>
+      <c r="K8" s="4">
+        <v>1.413671612739563</v>
+      </c>
+      <c r="L8" s="5">
+        <f t="shared" si="0"/>
+        <v>2.8840601444244385E-2</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O8" s="3">
+        <f t="shared" ref="O8" si="8">B8/L8</f>
+        <v>0.48809863029977368</v>
+      </c>
+      <c r="P8" s="3">
+        <f t="shared" ref="P8" si="9">C8/L8</f>
+        <v>0.20157935645789632</v>
+      </c>
+      <c r="Q8" s="3">
+        <f t="shared" ref="Q8" si="10">D8/L8</f>
+        <v>0.14974129212176951</v>
+      </c>
+      <c r="R8" s="3">
+        <f t="shared" ref="R8" si="11">E8/L8</f>
+        <v>0.11020774777055584</v>
+      </c>
+      <c r="S8" s="3">
+        <f t="shared" ref="S8" si="12">F8/L8</f>
+        <v>6.5477018080488619E-4</v>
+      </c>
+      <c r="T8" s="3">
+        <f t="shared" ref="T8" si="13">G8/L8</f>
+        <v>2.9193241690605852E-2</v>
+      </c>
+      <c r="U8" s="3">
+        <f t="shared" ref="U8" si="14">H8/L8</f>
+        <v>2.038372418572329E-2</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="X8" s="2">
+        <f>I8/K8</f>
+        <v>0.88957947208037413</v>
+      </c>
+      <c r="Y8" s="2">
+        <f>J8/K8</f>
+        <v>9.0019324992197738E-2</v>
+      </c>
+      <c r="Z8" s="2">
+        <f>L8/K8</f>
+        <v>2.0401202927428107E-2</v>
+      </c>
+      <c r="AB8" s="6"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>0.01</v>
-      </c>
-      <c r="C9">
-        <v>0.01</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0.01</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>1.26</v>
-      </c>
-      <c r="J9">
-        <v>0.13</v>
-      </c>
-      <c r="K9">
-        <v>1.42</v>
+      <c r="B9" s="4">
+        <v>1.4393034391105175E-2</v>
+      </c>
+      <c r="C9" s="4">
+        <v>6.2461304478347301E-3</v>
+      </c>
+      <c r="D9" s="4">
+        <v>4.4004684314131737E-3</v>
+      </c>
+      <c r="E9" s="4">
+        <v>5.6066568940877914E-3</v>
+      </c>
+      <c r="F9" s="4">
+        <v>6.940495950402692E-5</v>
+      </c>
+      <c r="G9" s="4">
+        <v>9.5076643628999591E-4</v>
+      </c>
+      <c r="H9" s="4">
+        <v>5.8787886518985033E-4</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1.2575920820236206</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.12728571891784668</v>
+      </c>
+      <c r="K9" s="4">
+        <v>1.4171361923217773</v>
+      </c>
+      <c r="L9" s="5">
+        <f t="shared" si="0"/>
+        <v>3.2258391380310059E-2</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O9" s="3">
+        <f t="shared" ref="O9:O15" si="15">B9/L9</f>
+        <v>0.44617954508080104</v>
+      </c>
+      <c r="P9" s="3">
+        <f t="shared" ref="P9:P15" si="16">C9/L9</f>
+        <v>0.1936280818902599</v>
+      </c>
+      <c r="Q9" s="3">
+        <f t="shared" ref="Q9:Q15" si="17">D9/L9</f>
+        <v>0.1364131391281693</v>
+      </c>
+      <c r="R9" s="3">
+        <f t="shared" ref="R9:R15" si="18">E9/L9</f>
+        <v>0.17380460259124991</v>
+      </c>
+      <c r="S9" s="3">
+        <f t="shared" ref="S9:S15" si="19">F9/L9</f>
+        <v>2.151531943604307E-3</v>
+      </c>
+      <c r="T9" s="3">
+        <f t="shared" ref="T9:T15" si="20">G9/L9</f>
+        <v>2.9473460876611679E-2</v>
+      </c>
+      <c r="U9" s="3">
+        <f t="shared" ref="U9:U15" si="21">H9/L9</f>
+        <v>1.8224060160317884E-2</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="X9" s="2">
+        <f>I9/K9</f>
+        <v>0.88741794108245431</v>
+      </c>
+      <c r="Y9" s="2">
+        <f>J9/K9</f>
+        <v>8.981897407426101E-2</v>
+      </c>
+      <c r="Z9" s="2">
+        <f>L9/K9</f>
+        <v>2.2763084843284712E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>0.02</v>
-      </c>
-      <c r="C10">
-        <v>0.01</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>1.26</v>
-      </c>
-      <c r="J10">
-        <v>0.13</v>
-      </c>
-      <c r="K10">
-        <v>1.42</v>
+      <c r="B10" s="4">
+        <v>1.5505343675613403E-2</v>
+      </c>
+      <c r="C10" s="4">
+        <v>7.1024731732904911E-3</v>
+      </c>
+      <c r="D10" s="4">
+        <v>4.7702654264867306E-3</v>
+      </c>
+      <c r="E10" s="4">
+        <v>3.6862767301499844E-3</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1.0013097198680043E-4</v>
+      </c>
+      <c r="G10" s="4">
+        <v>8.3966535748913884E-4</v>
+      </c>
+      <c r="H10" s="4">
+        <v>5.8787886518985033E-4</v>
+      </c>
+      <c r="I10" s="4">
+        <v>1.2575920820236206</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0.12728846073150635</v>
+      </c>
+      <c r="K10" s="4">
+        <v>1.4174766540527344</v>
+      </c>
+      <c r="L10" s="5">
+        <f t="shared" si="0"/>
+        <v>3.2596111297607422E-2</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O10" s="3">
+        <f t="shared" si="15"/>
+        <v>0.47568078087742655</v>
+      </c>
+      <c r="P10" s="3">
+        <f t="shared" si="16"/>
+        <v>0.21789326672877748</v>
+      </c>
+      <c r="Q10" s="3">
+        <f t="shared" si="17"/>
+        <v>0.14634461709047089</v>
+      </c>
+      <c r="R10" s="3">
+        <f t="shared" si="18"/>
+        <v>0.11308946323362688</v>
+      </c>
+      <c r="S10" s="3">
+        <f t="shared" si="19"/>
+        <v>3.0718686371079521E-3</v>
+      </c>
+      <c r="T10" s="3">
+        <f t="shared" si="20"/>
+        <v>2.5759678810238044E-2</v>
+      </c>
+      <c r="U10" s="3">
+        <f t="shared" si="21"/>
+        <v>1.8035245364774573E-2</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="X10" s="2">
+        <f>I10/K10</f>
+        <v>0.88720479341089342</v>
+      </c>
+      <c r="Y10" s="2">
+        <f>J10/K10</f>
+        <v>8.9799334872693315E-2</v>
+      </c>
+      <c r="Z10" s="2">
+        <f>L10/K10</f>
+        <v>2.2995871716413291E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>0.02</v>
-      </c>
-      <c r="C11">
-        <v>0.01</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>1.26</v>
-      </c>
-      <c r="J11">
-        <v>0.13</v>
-      </c>
-      <c r="K11">
-        <v>1.42</v>
+      <c r="B11" s="4">
+        <v>1.6611339524388313E-2</v>
+      </c>
+      <c r="C11" s="4">
+        <v>7.5509538874030113E-3</v>
+      </c>
+      <c r="D11" s="4">
+        <v>4.7781895846128464E-3</v>
+      </c>
+      <c r="E11" s="4">
+        <v>3.8834144361317158E-3</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1.6670714830979705E-4</v>
+      </c>
+      <c r="G11" s="4">
+        <v>6.8277172977104783E-4</v>
+      </c>
+      <c r="H11" s="4">
+        <v>5.8787886518985033E-4</v>
+      </c>
+      <c r="I11" s="4">
+        <v>1.2575920820236206</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0.12730203568935394</v>
+      </c>
+      <c r="K11" s="4">
+        <v>1.4191594123840332</v>
+      </c>
+      <c r="L11" s="5">
+        <f t="shared" si="0"/>
+        <v>3.4265294671058655E-2</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O11" s="3">
+        <f t="shared" si="15"/>
+        <v>0.48478612788404463</v>
+      </c>
+      <c r="P11" s="3">
+        <f t="shared" si="16"/>
+        <v>0.22036739972298386</v>
+      </c>
+      <c r="Q11" s="3">
+        <f t="shared" si="17"/>
+        <v>0.13944691357487807</v>
+      </c>
+      <c r="R11" s="3">
+        <f t="shared" si="18"/>
+        <v>0.11333375280766948</v>
+      </c>
+      <c r="S11" s="3">
+        <f t="shared" si="19"/>
+        <v>4.8651893967397329E-3</v>
+      </c>
+      <c r="T11" s="3">
+        <f t="shared" si="20"/>
+        <v>1.9926042846721361E-2</v>
+      </c>
+      <c r="U11" s="3">
+        <f t="shared" si="21"/>
+        <v>1.7156684944151023E-2</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="X11" s="2">
+        <f>I11/K11</f>
+        <v>0.88615279654242851</v>
+      </c>
+      <c r="Y11" s="2">
+        <f>J11/K11</f>
+        <v>8.9702421432346621E-2</v>
+      </c>
+      <c r="Z11" s="2">
+        <f>L11/K11</f>
+        <v>2.4144782025224843E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>0.02</v>
-      </c>
-      <c r="C12">
-        <v>0.01</v>
-      </c>
-      <c r="D12">
-        <v>0.01</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>1.26</v>
-      </c>
-      <c r="J12">
-        <v>0.13</v>
-      </c>
-      <c r="K12">
-        <v>1.42</v>
+      <c r="B12" s="4">
+        <v>1.8054837360978127E-2</v>
+      </c>
+      <c r="C12" s="4">
+        <v>7.9958783462643623E-3</v>
+      </c>
+      <c r="D12" s="4">
+        <v>5.0352960824966431E-3</v>
+      </c>
+      <c r="E12" s="4">
+        <v>2.7553648687899113E-3</v>
+      </c>
+      <c r="F12" s="4">
+        <v>2.1598926105070859E-4</v>
+      </c>
+      <c r="G12" s="4">
+        <v>4.7097154310904443E-4</v>
+      </c>
+      <c r="H12" s="4">
+        <v>5.8787886518985033E-4</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1.2575732469558716</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0.12730884552001953</v>
+      </c>
+      <c r="K12" s="4">
+        <v>1.4200023412704468</v>
+      </c>
+      <c r="L12" s="5">
+        <f t="shared" si="0"/>
+        <v>3.5120248794555664E-2</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O12" s="3">
+        <f t="shared" si="15"/>
+        <v>0.51408626022538273</v>
+      </c>
+      <c r="P12" s="3">
+        <f t="shared" si="16"/>
+        <v>0.22767146078714232</v>
+      </c>
+      <c r="Q12" s="3">
+        <f t="shared" si="17"/>
+        <v>0.14337301856691897</v>
+      </c>
+      <c r="R12" s="3">
+        <f t="shared" si="18"/>
+        <v>7.8455163712195783E-2</v>
+      </c>
+      <c r="S12" s="3">
+        <f t="shared" si="19"/>
+        <v>6.1499923395813534E-3</v>
+      </c>
+      <c r="T12" s="3">
+        <f t="shared" si="20"/>
+        <v>1.3410256455303197E-2</v>
+      </c>
+      <c r="U12" s="3">
+        <f t="shared" si="21"/>
+        <v>1.6739029060664948E-2</v>
+      </c>
+      <c r="W12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="X12" s="2">
+        <f>I12/K12</f>
+        <v>0.88561350246137394</v>
+      </c>
+      <c r="Y12" s="2">
+        <f>J12/K12</f>
+        <v>8.9653968743543713E-2</v>
+      </c>
+      <c r="Z12" s="2">
+        <f>L12/K12</f>
+        <v>2.473252879508234E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>0.02</v>
-      </c>
-      <c r="C13">
-        <v>0.01</v>
-      </c>
-      <c r="D13">
-        <v>0.01</v>
-      </c>
-      <c r="E13">
-        <v>0.01</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>1.26</v>
-      </c>
-      <c r="J13">
-        <v>0.13</v>
-      </c>
-      <c r="K13">
-        <v>1.43</v>
+      <c r="B13" s="4">
+        <v>1.9538545981049538E-2</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1.1961757205426693E-2</v>
+      </c>
+      <c r="D13" s="4">
+        <v>5.5862013250589371E-3</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1.0341311804950237E-2</v>
+      </c>
+      <c r="F13" s="4">
+        <v>3.0193841666914523E-4</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1.1798518244177103E-3</v>
+      </c>
+      <c r="H13" s="4">
+        <v>5.8787886518985033E-4</v>
+      </c>
+      <c r="I13" s="4">
+        <v>1.2575732469558716</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0.12742601335048676</v>
+      </c>
+      <c r="K13" s="4">
+        <v>1.4345008134841919</v>
+      </c>
+      <c r="L13" s="5">
+        <f t="shared" si="0"/>
+        <v>4.9501553177833557E-2</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O13" s="3">
+        <f t="shared" si="15"/>
+        <v>0.39470571581577685</v>
+      </c>
+      <c r="P13" s="3">
+        <f t="shared" si="16"/>
+        <v>0.24164407856970199</v>
+      </c>
+      <c r="Q13" s="3">
+        <f t="shared" si="17"/>
+        <v>0.11284901112073385</v>
+      </c>
+      <c r="R13" s="3">
+        <f t="shared" si="18"/>
+        <v>0.20890883499754515</v>
+      </c>
+      <c r="S13" s="3">
+        <f t="shared" si="19"/>
+        <v>6.0995746049510042E-3</v>
+      </c>
+      <c r="T13" s="3">
+        <f t="shared" si="20"/>
+        <v>2.3834642524833735E-2</v>
+      </c>
+      <c r="U13" s="3">
+        <f t="shared" si="21"/>
+        <v>1.1875968074737063E-2</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="X13" s="2">
+        <f>I13/K13</f>
+        <v>0.87666262377461524</v>
+      </c>
+      <c r="Y13" s="2">
+        <f>J13/K13</f>
+        <v>8.8829516269835831E-2</v>
+      </c>
+      <c r="Z13" s="2">
+        <f>L13/K13</f>
+        <v>3.4507859955548961E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>0.02</v>
-      </c>
-      <c r="C14">
-        <v>0.01</v>
-      </c>
-      <c r="D14">
-        <v>0.01</v>
-      </c>
-      <c r="E14">
-        <v>0.01</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>1.26</v>
-      </c>
-      <c r="J14">
-        <v>0.13</v>
-      </c>
-      <c r="K14">
-        <v>1.44</v>
+      <c r="B14" s="4">
+        <v>2.059825137257576E-2</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1.2051629833877087E-2</v>
+      </c>
+      <c r="D14" s="4">
+        <v>5.9078303165733814E-3</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1.0231727734208107E-2</v>
+      </c>
+      <c r="F14" s="4">
+        <v>2.441438555251807E-4</v>
+      </c>
+      <c r="G14" s="4">
+        <v>9.8194694146513939E-4</v>
+      </c>
+      <c r="H14" s="4">
+        <v>5.8787886518985033E-4</v>
+      </c>
+      <c r="I14" s="4">
+        <v>1.2575732469558716</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0.12743504345417023</v>
+      </c>
+      <c r="K14" s="4">
+        <v>1.4356157779693604</v>
+      </c>
+      <c r="L14" s="5">
+        <f t="shared" si="0"/>
+        <v>5.0607487559318542E-2</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O14" s="3">
+        <f t="shared" si="15"/>
+        <v>0.40701983769559663</v>
+      </c>
+      <c r="P14" s="3">
+        <f t="shared" si="16"/>
+        <v>0.23813926387376991</v>
+      </c>
+      <c r="Q14" s="3">
+        <f t="shared" si="17"/>
+        <v>0.11673826545229375</v>
+      </c>
+      <c r="R14" s="3">
+        <f t="shared" si="18"/>
+        <v>0.20217814058078251</v>
+      </c>
+      <c r="S14" s="3">
+        <f t="shared" si="19"/>
+        <v>4.8242635092092334E-3</v>
+      </c>
+      <c r="T14" s="3">
+        <f t="shared" si="20"/>
+        <v>1.9403194839778801E-2</v>
+      </c>
+      <c r="U14" s="3">
+        <f t="shared" si="21"/>
+        <v>1.1616440442746344E-2</v>
+      </c>
+      <c r="W14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="X14" s="2">
+        <f>I14/K14</f>
+        <v>0.8759817677224716</v>
+      </c>
+      <c r="Y14" s="2">
+        <f>J14/K14</f>
+        <v>8.8766817284791646E-2</v>
+      </c>
+      <c r="Z14" s="2">
+        <f>L14/K14</f>
+        <v>3.5251414992736749E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>1.26</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0.13</v>
-      </c>
-      <c r="K15" s="3">
-        <v>1.43</v>
-      </c>
+      <c r="B15" s="4">
+        <v>1.9935356453061104E-2</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1.3367828913033009E-2</v>
+      </c>
+      <c r="D15" s="4">
+        <v>6.8857516162097454E-3</v>
+      </c>
+      <c r="E15" s="4">
+        <v>8.1807821989059448E-3</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1.5328027075156569E-4</v>
+      </c>
+      <c r="G15" s="4">
+        <v>6.8331917282193899E-4</v>
+      </c>
+      <c r="H15" s="4">
+        <v>5.8787886518985033E-4</v>
+      </c>
+      <c r="I15" s="4">
+        <v>1.2575732469558716</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0.12742844223976135</v>
+      </c>
+      <c r="K15" s="4">
+        <v>1.4347997903823853</v>
+      </c>
+      <c r="L15" s="5">
+        <f t="shared" si="0"/>
+        <v>4.9798101186752319E-2</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O15" s="3">
+        <f t="shared" si="15"/>
+        <v>0.40032362636277513</v>
+      </c>
+      <c r="P15" s="3">
+        <f t="shared" si="16"/>
+        <v>0.26844053476860724</v>
+      </c>
+      <c r="Q15" s="3">
+        <f t="shared" si="17"/>
+        <v>0.13827337693834693</v>
+      </c>
+      <c r="R15" s="3">
+        <f t="shared" si="18"/>
+        <v>0.16427899867560133</v>
+      </c>
+      <c r="S15" s="3">
+        <f t="shared" si="19"/>
+        <v>3.0780344450631889E-3</v>
+      </c>
+      <c r="T15" s="3">
+        <f t="shared" si="20"/>
+        <v>1.3721791725739955E-2</v>
+      </c>
+      <c r="U15" s="3">
+        <f t="shared" si="21"/>
+        <v>1.1805246609407719E-2</v>
+      </c>
+      <c r="W15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X15" s="2">
+        <f>I15/K15</f>
+        <v>0.87647994889985215</v>
+      </c>
+      <c r="Y15" s="2">
+        <f>J15/K15</f>
+        <v>8.8812699230880629E-2</v>
+      </c>
+      <c r="Z15" s="2">
+        <f>L15/K15</f>
+        <v>3.4707351869267239E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C18" s="5"/>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J35" s="5"/>
+    </row>
+    <row r="36" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J36" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
